--- a/LOGS/a5f6da06-f864-4636-80e8-db4a1edb1e66/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/a5f6da06-f864-4636-80e8-db4a1edb1e66/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>rows</t>
   </si>
@@ -35,13 +35,79 @@
     <t>value</t>
   </si>
   <si>
+    <t>10 Inventories Finished goods</t>
+  </si>
+  <si>
+    <t>10 Inventories Goods in transit</t>
+  </si>
+  <si>
+    <t>10 Inventories Provision for inventory obsolescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Inventories </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trade payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amounts payable to controlling entity (Refer Note 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other creditors and accruals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>$'000</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Opening balance</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Additions</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Payments</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Closing balance</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Current</t>
+  </si>
+  <si>
+    <t>13 Lease liabilities Non-current</t>
+  </si>
+  <si>
+    <t>Amounts recognised in profit or loss Interest on lease liabilities</t>
+  </si>
+  <si>
+    <t>Amounts recognised in profit or loss Depreciation of right-of use assets</t>
+  </si>
+  <si>
+    <t>Amounts recognised in the statement of cash flows Total cash outflow for leases</t>
+  </si>
+  <si>
+    <t>Current Liability for annual leave and other current employee benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
+    <t>Non-current Liability for long-service leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-current </t>
+  </si>
+  <si>
     <t xml:space="preserve"> at 1 January</t>
   </si>
   <si>
     <t xml:space="preserve"> at31 December</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve"> at 31 December</t>
@@ -426,12 +492,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>13236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>34319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>14472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>13324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>27635</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -450,36 +619,479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>19828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>15277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>36669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>19220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>12092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>35064</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>-4452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12">
+        <v>11685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>-2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>11.043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18">
+        <v>1.517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
+      </c>
+      <c r="D19">
+        <v>1931</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -508,10 +1120,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -522,10 +1134,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -536,10 +1148,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -550,10 +1162,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -564,10 +1176,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -578,10 +1190,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -592,10 +1204,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -606,10 +1218,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -620,10 +1232,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -634,10 +1246,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -648,10 +1260,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -662,10 +1274,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -676,10 +1288,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -690,10 +1302,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -704,10 +1316,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -718,10 +1330,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -732,10 +1344,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -746,10 +1358,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -760,10 +1372,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -774,10 +1386,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -788,10 +1400,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -802,10 +1414,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -816,10 +1428,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -830,10 +1442,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -844,10 +1456,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -858,10 +1470,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -872,10 +1484,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -886,10 +1498,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -927,10 +1539,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -941,10 +1553,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -955,10 +1567,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -969,10 +1581,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1010,10 +1622,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1024,10 +1636,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1038,10 +1650,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1052,10 +1664,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2021</v>

--- a/LOGS/a5f6da06-f864-4636-80e8-db4a1edb1e66/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/a5f6da06-f864-4636-80e8-db4a1edb1e66/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -44,19 +44,19 @@
     <t>10 Inventories Provision for inventory obsolescence</t>
   </si>
   <si>
-    <t xml:space="preserve">10 Inventories </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trade payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amounts payable to controlling entity (Refer Note 19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other creditors and accruals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>10 Inventories nan</t>
+  </si>
+  <si>
+    <t>None Trade payables</t>
+  </si>
+  <si>
+    <t>None Amounts payable to controlling entity (Refer Note 19)</t>
+  </si>
+  <si>
+    <t>None Other creditors and accruals</t>
+  </si>
+  <si>
+    <t>None nan</t>
   </si>
   <si>
     <t>Trade and other payables</t>
@@ -95,22 +95,22 @@
     <t>Current Liability for annual leave and other current employee benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Current </t>
+    <t>Current nan</t>
   </si>
   <si>
     <t>Non-current Liability for long-service leave</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-current </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> at 1 January</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> at31 December</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> at 31 December</t>
+    <t>Non-current nan</t>
+  </si>
+  <si>
+    <t>None at 1 January</t>
+  </si>
+  <si>
+    <t>None at31 December</t>
+  </si>
+  <si>
+    <t>None at 31 December</t>
   </si>
   <si>
     <t>A class ordinary shares Shares</t>
@@ -119,19 +119,19 @@
     <t>Aclass ordinary shares $'000</t>
   </si>
   <si>
-    <t xml:space="preserve"> On issue at 1 January</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On issue at 31 December</t>
+    <t>None On issue at 1 January</t>
+  </si>
+  <si>
+    <t>None On issue at 31 December</t>
   </si>
   <si>
     <t>Total $'000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cents per share (fully franked)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total dollar amount</t>
+    <t>None Cents per share (fully franked)</t>
+  </si>
+  <si>
+    <t>None Total dollar amount</t>
   </si>
   <si>
     <t>$</t>
